--- a/homework/51.xlsx
+++ b/homework/51.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574ACB67-613B-48D2-865F-53C7A7420F8C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4259FF76-6377-4F38-9AD2-48DC7EBD6E10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10050" yWindow="4155" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="1140" windowWidth="15945" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>she said she was very busy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,6 +26,138 @@
   </si>
   <si>
     <t>50.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she said she could't went(go) to the party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he said (that) he had to go out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he said (that) he was leanrning Russian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she said (that) she didn't feel very well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they said (that) they would be home late</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she said (that) she had just come back from holiday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she said (that) she was going to buy a new computer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>they said (that) they hadn't got a key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she wasn't hungry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she didn't want to go</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he would send me a postcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>she was going to the cinema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">he </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">did </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>want(ed) to watch TV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>he was(had) gone home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>me(i) could have it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">he </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>did</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> need(ed) it</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>said</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>told</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>say</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>told(tell)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -33,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +188,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -87,6 +234,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,48 +607,65 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="4"/>
@@ -514,49 +680,65 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
         <v>6</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <v>7</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" s="1">
         <v>8</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <v>9</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C23" s="4"/>
@@ -569,102 +751,115 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
-        <v>5</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
-        <v>6</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
-        <v>7</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="1">
         <v>10</v>
       </c>
+      <c r="C32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
